--- a/Hw2.xlsx
+++ b/Hw2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis_phd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\phd-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8501F048-8025-4158-90C2-A159CB7E538E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -423,7 +422,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,7 +526,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,11 +803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,12 +888,21 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <f>SUM(D3:G3)</f>
+        <v>30</v>
+      </c>
       <c r="I3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="2">
+        <f>H3*(1-I3/70)</f>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="K3" s="1">
+        <f>J3/2</f>
+        <v>14.571428571428571</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -919,12 +927,21 @@
       <c r="G4" s="2">
         <v>6</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H63" si="0">SUM(D4:G4)</f>
+        <v>36</v>
+      </c>
       <c r="I4" s="2">
         <v>15</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J55" si="1">H4*(1-I4/70)</f>
+        <v>28.285714285714285</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K63" si="2">J4/2</f>
+        <v>14.142857142857142</v>
+      </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -949,12 +966,21 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>14.571428571428571</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -979,12 +1005,21 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="I6" s="1">
         <v>14</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -997,14 +1032,31 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1029,12 +1081,21 @@
       <c r="G8" s="2">
         <v>4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="I8" s="2">
         <v>14</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>24.8</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1059,12 +1120,21 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7142857142857135</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1089,12 +1159,21 @@
       <c r="G10" s="4">
         <v>4</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857144</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1119,12 +1198,21 @@
       <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1149,12 +1237,21 @@
       <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="I12" s="1">
         <v>11</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>31.185714285714287</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>15.592857142857143</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1179,12 +1276,21 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>26.228571428571428</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>13.114285714285714</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1209,12 +1315,21 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="I14" s="2">
         <v>16</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>22.371428571428574</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>11.185714285714287</v>
+      </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1227,14 +1342,31 @@
       <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1247,14 +1379,33 @@
       <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>38.285714285714285</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>19.142857142857142</v>
+      </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1279,12 +1430,21 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="I17" s="2">
         <v>8</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>26.571428571428569</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>13.285714285714285</v>
+      </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1309,12 +1469,21 @@
       <c r="G18" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>37.714285714285715</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>18.857142857142858</v>
+      </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1327,14 +1496,33 @@
       <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1359,12 +1547,21 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="I20" s="2">
         <v>2</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>16.514285714285712</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2571428571428562</v>
+      </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1389,12 +1586,21 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="2">
         <v>14</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1419,12 +1625,21 @@
       <c r="G22" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1437,14 +1652,33 @@
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1457,14 +1691,33 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>32.24285714285714</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>16.12142857142857</v>
+      </c>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1477,14 +1730,33 @@
       <c r="C25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>20.142857142857146</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>10.071428571428573</v>
+      </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1497,14 +1769,33 @@
       <c r="C26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1517,14 +1808,33 @@
       <c r="C27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I27" s="2">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>25.2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1549,12 +1859,21 @@
       <c r="G28" s="2">
         <v>10</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="I28" s="2">
         <v>16</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>28.542857142857144</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>14.271428571428572</v>
+      </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1579,12 +1898,21 @@
       <c r="G29" s="1">
         <v>10</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1597,14 +1925,33 @@
       <c r="C30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1629,12 +1976,21 @@
       <c r="G31" s="1">
         <v>7</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="I31" s="2">
         <v>24</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>23.657142857142858</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>11.828571428571429</v>
+      </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1659,12 +2015,21 @@
       <c r="G32" s="1">
         <v>10</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>14.571428571428571</v>
+      </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1677,14 +2042,33 @@
       <c r="C33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I33" s="2">
+        <v>15</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>15.714285714285714</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8571428571428568</v>
+      </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1697,14 +2081,33 @@
       <c r="C34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="4"/>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>27.2</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1717,14 +2120,33 @@
       <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1737,14 +2159,33 @@
       <c r="C36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="D36" s="4">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>35.485714285714288</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>17.742857142857144</v>
+      </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1769,12 +2210,21 @@
       <c r="G37" s="1">
         <v>10</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="I37" s="1">
         <v>2</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="1"/>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>37.885714285714286</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="2"/>
+        <v>18.942857142857143</v>
+      </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1787,14 +2237,33 @@
       <c r="C38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1807,14 +2276,33 @@
       <c r="C39" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="D39" s="2">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>35.942857142857143</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="2"/>
+        <v>17.971428571428572</v>
+      </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1827,14 +2315,33 @@
       <c r="C40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="D40" s="2">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I40" s="2">
+        <v>17</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>30.285714285714285</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="2"/>
+        <v>15.142857142857142</v>
+      </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1847,14 +2354,33 @@
       <c r="C41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="D41" s="2">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I41" s="2">
+        <v>6</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>27.428571428571427</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="2"/>
+        <v>13.714285714285714</v>
+      </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1867,14 +2393,33 @@
       <c r="C42" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1887,14 +2432,33 @@
       <c r="C43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>26.571428571428569</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="2"/>
+        <v>13.285714285714285</v>
+      </c>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -1907,14 +2471,33 @@
       <c r="C44" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="D44" s="2">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I44" s="2">
+        <v>9</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>17.428571428571431</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7142857142857153</v>
+      </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1927,14 +2510,33 @@
       <c r="C45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2">
+        <v>9</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="1"/>
+        <v>36.914285714285711</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="2"/>
+        <v>18.457142857142856</v>
+      </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1947,14 +2549,33 @@
       <c r="C46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
+      <c r="D46" s="2">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="I46" s="2">
+        <v>17</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="1"/>
+        <v>25.74285714285714</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="2"/>
+        <v>12.87142857142857</v>
+      </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -1979,12 +2600,21 @@
       <c r="G47" s="2">
         <v>7</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="I47" s="2">
         <v>14</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="J47" s="2">
+        <f t="shared" si="1"/>
+        <v>28.8</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2009,12 +2639,21 @@
       <c r="G48" s="2">
         <v>6</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="I48" s="2">
         <v>0</v>
       </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="J48" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2039,12 +2678,21 @@
       <c r="G49" s="1">
         <v>10</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="I49" s="2">
         <v>16</v>
       </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="J49" s="2">
+        <f t="shared" si="1"/>
+        <v>29.314285714285717</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="2"/>
+        <v>14.657142857142858</v>
+      </c>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2057,14 +2705,33 @@
       <c r="C50" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2077,14 +2744,33 @@
       <c r="C51" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="D51" s="2">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="1"/>
+        <v>37.885714285714286</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="2"/>
+        <v>18.942857142857143</v>
+      </c>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2109,12 +2795,21 @@
       <c r="G52" s="2">
         <v>7</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="I52" s="2">
         <v>10</v>
       </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="J52" s="2">
+        <f t="shared" si="1"/>
+        <v>31.714285714285715</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="2"/>
+        <v>15.857142857142858</v>
+      </c>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2127,14 +2822,33 @@
       <c r="C53" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2147,14 +2861,33 @@
       <c r="C54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="D54" s="2">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I54" s="2">
+        <v>17</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="1"/>
+        <v>28.771428571428572</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="2"/>
+        <v>14.385714285714286</v>
+      </c>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2167,14 +2900,33 @@
       <c r="C55" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="D55" s="2">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I55" s="2">
+        <v>19</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="1"/>
+        <v>27.68571428571429</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="2"/>
+        <v>13.842857142857145</v>
+      </c>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2191,10 +2943,19 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="J56" s="2">
+        <f t="shared" ref="J4:J63" si="3">H56*(1-I56/60)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2211,10 +2972,19 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="J57" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2231,10 +3001,19 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="J58" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2251,10 +3030,19 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="J59" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2271,10 +3059,19 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="J60" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2291,10 +3088,19 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="J61" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2311,10 +3117,19 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="J62" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2331,10 +3146,19 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="J63" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
